--- a/doc/checkpoint.xlsx
+++ b/doc/checkpoint.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14760" windowHeight="13170"/>
+    <workbookView windowWidth="16605" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="CheckpointTable(yes)" sheetId="1" r:id="rId1"/>
@@ -392,12 +392,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="AB2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"string","name":"c_res","size":64}
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>xxx</t>
   </si>
@@ -483,6 +497,9 @@
     <t>道具概率</t>
   </si>
   <si>
+    <t>path</t>
+  </si>
+  <si>
     <t>A001</t>
   </si>
   <si>
@@ -516,6 +533,9 @@
     <t>0.1|0.2|0.3</t>
   </si>
   <si>
+    <t>c_01</t>
+  </si>
+  <si>
     <t>富士山下 II</t>
   </si>
   <si>
@@ -621,9 +641,6 @@
     <t>A010</t>
   </si>
   <si>
-    <t>I001|I002|I011</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.11</t>
   </si>
   <si>
@@ -636,9 +653,6 @@
     <t>A011</t>
   </si>
   <si>
-    <t>I001|I002|I012</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.12</t>
   </si>
   <si>
@@ -654,9 +668,6 @@
     <t>A012</t>
   </si>
   <si>
-    <t>I001|I002|I013</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.13</t>
   </si>
   <si>
@@ -666,9 +677,6 @@
     <t>A013</t>
   </si>
   <si>
-    <t>I001|I002|I014</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.14</t>
   </si>
   <si>
@@ -681,9 +689,6 @@
     <t>A014</t>
   </si>
   <si>
-    <t>I001|I002|I015</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.15</t>
   </si>
   <si>
@@ -693,9 +698,6 @@
     <t>A015</t>
   </si>
   <si>
-    <t>I001|I002|I016</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.16</t>
   </si>
   <si>
@@ -705,9 +707,6 @@
     <t>A016</t>
   </si>
   <si>
-    <t>I001|I002|I017</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.17</t>
   </si>
   <si>
@@ -720,9 +719,6 @@
     <t>A017</t>
   </si>
   <si>
-    <t>I001|I002|I018</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.18</t>
   </si>
   <si>
@@ -732,9 +728,6 @@
     <t>A018</t>
   </si>
   <si>
-    <t>I001|I002|I019</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.19</t>
   </si>
   <si>
@@ -744,9 +737,6 @@
     <t>A019</t>
   </si>
   <si>
-    <t>I001|I002|I020</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.20</t>
   </si>
   <si>
@@ -759,25 +749,16 @@
     <t>A020</t>
   </si>
   <si>
-    <t>I001|I002|I021</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.21</t>
   </si>
   <si>
     <t>A021</t>
   </si>
   <si>
-    <t>I001|I002|I022</t>
-  </si>
-  <si>
     <t>0.1|0.2|0.22</t>
   </si>
   <si>
     <t>A022</t>
-  </si>
-  <si>
-    <t>I001|I002|I023</t>
   </si>
   <si>
     <t>0.1|0.2|0.23</t>
@@ -788,12 +769,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -991,12 +972,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1058,12 +1033,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,6 +1117,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,10 +1247,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,16 +1259,16 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,10 +1280,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1323,88 +1304,88 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1418,16 +1399,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1819,14 +1800,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA2" sqref="AA2"/>
+      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1855,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1937,31 +1918,34 @@
       <c r="AA2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AB2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1976,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -1991,60 +1975,63 @@
         <v>0</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -2059,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -2074,60 +2061,63 @@
         <v>0</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -2142,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -2157,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V5" s="1">
         <v>50</v>
@@ -2178,39 +2168,42 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -2225,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -2240,60 +2233,63 @@
         <v>0</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -2308,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -2323,60 +2319,63 @@
         <v>0</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AA7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -2391,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -2406,16 +2405,16 @@
         <v>0</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V8" s="1">
         <v>50</v>
@@ -2427,39 +2426,42 @@
         <v>0</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -2474,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -2489,60 +2491,63 @@
         <v>0</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2557,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -2572,60 +2577,63 @@
         <v>0</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
@@ -2640,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -2655,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V11" s="1">
         <v>50</v>
@@ -2676,39 +2684,42 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -2723,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -2738,45 +2749,48 @@
         <v>0</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="AB12" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -2791,7 +2805,7 @@
         <v>83</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
@@ -2806,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -2821,37 +2835,40 @@
         <v>0</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>84</v>
       </c>
       <c r="Z13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>86</v>
+      <c r="AB13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -2859,7 +2876,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -2868,13 +2885,13 @@
         <v>81</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
@@ -2889,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -2904,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V14" s="1">
         <v>50</v>
@@ -2925,24 +2942,27 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>90</v>
+      <c r="AB14" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -2951,13 +2971,13 @@
         <v>81</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
@@ -2972,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -2987,45 +3007,48 @@
         <v>0</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -3034,13 +3057,13 @@
         <v>81</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1">
         <v>3</v>
@@ -3055,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
@@ -3070,45 +3093,48 @@
         <v>0</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -3117,13 +3143,13 @@
         <v>81</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
@@ -3138,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -3153,16 +3179,16 @@
         <v>0</v>
       </c>
       <c r="R17" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V17" s="1">
         <v>50</v>
@@ -3174,24 +3200,27 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1">
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -3200,13 +3229,13 @@
         <v>81</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
@@ -3221,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
@@ -3236,45 +3265,48 @@
         <v>0</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -3283,13 +3315,13 @@
         <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
@@ -3304,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -3319,45 +3351,48 @@
         <v>0</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -3366,13 +3401,13 @@
         <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1">
         <v>3</v>
@@ -3387,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -3402,16 +3437,16 @@
         <v>0</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V20" s="1">
         <v>50</v>
@@ -3423,24 +3458,27 @@
         <v>0</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B21" s="1">
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -3449,13 +3487,13 @@
         <v>81</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" s="1">
         <v>3</v>
@@ -3470,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
@@ -3485,45 +3523,48 @@
         <v>0</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B22" s="1">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -3538,7 +3579,7 @@
         <v>83</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22" s="1">
         <v>3</v>
@@ -3553,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -3568,45 +3609,48 @@
         <v>0</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -3621,7 +3665,7 @@
         <v>83</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" s="1">
         <v>3</v>
@@ -3636,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -3651,16 +3695,16 @@
         <v>0</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V23" s="1">
         <v>50</v>
@@ -3672,13 +3716,16 @@
         <v>0</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
